--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_10_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_10_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9349967945360079</v>
+        <v>0.9885029381164054</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7160553894573661</v>
+        <v>0.7945238940932877</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6648402859399041</v>
+        <v>0.8601144920343882</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9430178953622663</v>
+        <v>0.997461905167918</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9150776772054734</v>
+        <v>0.9908406872274487</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4346767342499544</v>
+        <v>0.07688090575469878</v>
       </c>
       <c r="H2" t="n">
-        <v>1.898738918143304</v>
+        <v>1.374019666328656</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4323876011464808</v>
+        <v>0.1071082677424068</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6581090675480037</v>
+        <v>0.03507832884158008</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5452483343472423</v>
+        <v>0.07109333831804758</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6374512426919187</v>
+        <v>0.1809901975406522</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6593001852342788</v>
+        <v>0.2772740625350644</v>
       </c>
       <c r="N2" t="n">
-        <v>1.034668376247462</v>
+        <v>1.006131766337917</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6873679590592325</v>
+        <v>0.2890781934136182</v>
       </c>
       <c r="P2" t="n">
-        <v>139.6663053276278</v>
+        <v>143.1309954659617</v>
       </c>
       <c r="Q2" t="n">
-        <v>223.7687372435336</v>
+        <v>227.2334273818675</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9371071473202753</v>
+        <v>0.988994269595549</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7125380297348938</v>
+        <v>0.7898529026955625</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6415044951411216</v>
+        <v>0.8128785707185611</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9271059225007268</v>
+        <v>0.9969253024306636</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8984218638497883</v>
+        <v>0.988033111807045</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4205647954642771</v>
+        <v>0.07359536989129249</v>
       </c>
       <c r="H3" t="n">
-        <v>1.92225951880343</v>
+        <v>1.405254607313182</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4624929693666378</v>
+        <v>0.143276115155154</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8418827924627291</v>
+        <v>0.04249457154330033</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6521878785158478</v>
+        <v>0.09288535636271499</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6501575217806104</v>
+        <v>0.1987521227077194</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6485096726065672</v>
+        <v>0.2712846657872363</v>
       </c>
       <c r="N3" t="n">
-        <v>1.03354285476252</v>
+        <v>1.005869722882374</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6761180719695188</v>
+        <v>0.2828338156464746</v>
       </c>
       <c r="P3" t="n">
-        <v>139.7323134399346</v>
+        <v>143.2183463286237</v>
       </c>
       <c r="Q3" t="n">
-        <v>223.8347453558404</v>
+        <v>227.3207782445296</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9375231425890124</v>
+        <v>0.9891235091633016</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7082150402866086</v>
+        <v>0.7852154341771898</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6141347852526799</v>
+        <v>0.7623033049633539</v>
       </c>
       <c r="E4" t="n">
-        <v>0.910322571137045</v>
+        <v>0.9963519918094624</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8805770533453439</v>
+        <v>0.9850281453585119</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4177830331867504</v>
+        <v>0.07273114430663781</v>
       </c>
       <c r="H4" t="n">
-        <v>1.951167369149648</v>
+        <v>1.436265380649119</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4978024731831271</v>
+        <v>0.1820008492926157</v>
       </c>
       <c r="J4" t="n">
-        <v>1.035720415458649</v>
+        <v>0.05041814407678551</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7667614427344371</v>
+        <v>0.1162094966847006</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6638277321460141</v>
+        <v>0.22247451703989</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6463613797147463</v>
+        <v>0.2696871229900267</v>
       </c>
       <c r="N4" t="n">
-        <v>1.033320990619193</v>
+        <v>1.005800795112906</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6738783218017136</v>
+        <v>0.2811682621450184</v>
       </c>
       <c r="P4" t="n">
-        <v>139.7455860811543</v>
+        <v>143.2419711826264</v>
       </c>
       <c r="Q4" t="n">
-        <v>223.8480179970602</v>
+        <v>227.3444030985322</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9365909850627026</v>
+        <v>0.9889810571719516</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7032186869787495</v>
+        <v>0.7807102426298784</v>
       </c>
       <c r="D5" t="n">
-        <v>0.583919398302076</v>
+        <v>0.7100432523009302</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8929089704833083</v>
+        <v>0.9957623834188767</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8618794975728729</v>
+        <v>0.9819255726667677</v>
       </c>
       <c r="G5" t="n">
-        <v>0.424016374857375</v>
+        <v>0.07368372142872602</v>
       </c>
       <c r="H5" t="n">
-        <v>1.984578006725394</v>
+        <v>1.46639161727049</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5367831684552974</v>
+        <v>0.2220155998854733</v>
       </c>
       <c r="J5" t="n">
-        <v>1.236837039032695</v>
+        <v>0.05856696371555189</v>
       </c>
       <c r="K5" t="n">
-        <v>0.886810103743996</v>
+        <v>0.1402912433733295</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6824204262652448</v>
+        <v>0.2450009341348426</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6511653974662467</v>
+        <v>0.2714474561102498</v>
       </c>
       <c r="N5" t="n">
-        <v>1.033818141299892</v>
+        <v>1.005876769508292</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6788868565345831</v>
+        <v>0.2830035362905613</v>
       </c>
       <c r="P5" t="n">
-        <v>139.7159664090985</v>
+        <v>143.2159467606405</v>
       </c>
       <c r="Q5" t="n">
-        <v>223.8183983250044</v>
+        <v>227.3183786765464</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9346098665146464</v>
+        <v>0.9886404124347011</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6976935630937802</v>
+        <v>0.7764026169618643</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5519591965234067</v>
+        <v>0.6574342754524745</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8751096485948676</v>
+        <v>0.9951717586980738</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8426597266542485</v>
+        <v>0.9788048640637408</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4372641237104385</v>
+        <v>0.07596161435524494</v>
       </c>
       <c r="H6" t="n">
-        <v>2.02152453558504</v>
+        <v>1.495196729947293</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5780148392066288</v>
+        <v>0.2622975165749684</v>
       </c>
       <c r="J6" t="n">
-        <v>1.442408511084493</v>
+        <v>0.06672982978202303</v>
       </c>
       <c r="K6" t="n">
-        <v>1.010211675145561</v>
+        <v>0.1645137585353741</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7019405776650036</v>
+        <v>0.2661447359288155</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6612594980115133</v>
+        <v>0.2756113465647685</v>
       </c>
       <c r="N6" t="n">
-        <v>1.034874737858855</v>
+        <v>1.006058446701493</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6894106838377304</v>
+        <v>0.2873446921821703</v>
       </c>
       <c r="P6" t="n">
-        <v>139.6544357287611</v>
+        <v>143.1550542811237</v>
       </c>
       <c r="Q6" t="n">
-        <v>223.7568676446669</v>
+        <v>227.2574861970296</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9318394617758483</v>
+        <v>0.9881601751825925</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6917899562077758</v>
+        <v>0.7723324965469718</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5192179787747917</v>
+        <v>0.6055041357250881</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8571720886630995</v>
+        <v>0.9945913924208167</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8232371586096694</v>
+        <v>0.975726798120896</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4557898329553227</v>
+        <v>0.0791729630713844</v>
       </c>
       <c r="H7" t="n">
-        <v>2.061001982015362</v>
+        <v>1.522413643902861</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6202540941261502</v>
+        <v>0.3020596577053337</v>
       </c>
       <c r="J7" t="n">
-        <v>1.649576549468339</v>
+        <v>0.07475091664798923</v>
       </c>
       <c r="K7" t="n">
-        <v>1.134915316385756</v>
+        <v>0.1884052871766614</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7207627635127574</v>
+        <v>0.2858477189618669</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6751220874444286</v>
+        <v>0.2813769057179079</v>
       </c>
       <c r="N7" t="n">
-        <v>1.036352287052881</v>
+        <v>1.006314573235951</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7038634324023211</v>
+        <v>0.2933557031248116</v>
       </c>
       <c r="P7" t="n">
-        <v>139.5714469367065</v>
+        <v>143.0722408276098</v>
       </c>
       <c r="Q7" t="n">
-        <v>223.6738788526123</v>
+        <v>227.1746727435156</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,1042 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9285018940626031</v>
+        <v>0.9875866156345067</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6856536448960564</v>
+        <v>0.7685217766186034</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4864793153124241</v>
+        <v>0.5550280654872404</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8393324576856287</v>
+        <v>0.9940294103290858</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8039029231254528</v>
+        <v>0.9727368084287851</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4781081636218797</v>
+        <v>0.0830083584104333</v>
       </c>
       <c r="H8" t="n">
-        <v>2.102035524011945</v>
+        <v>1.547895945610612</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6624900537758139</v>
+        <v>0.340708439299986</v>
       </c>
       <c r="J8" t="n">
-        <v>1.855613567276369</v>
+        <v>0.08251792061003137</v>
       </c>
       <c r="K8" t="n">
-        <v>1.259051813678149</v>
+        <v>0.2116131799550087</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7386432174073713</v>
+        <v>0.3040783664348437</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6914536597790771</v>
+        <v>0.2881117116856469</v>
       </c>
       <c r="N8" t="n">
-        <v>1.038132323166612</v>
+        <v>1.006620471661597</v>
       </c>
       <c r="O8" t="n">
-        <v>0.720890273582271</v>
+        <v>0.3003772237255676</v>
       </c>
       <c r="P8" t="n">
-        <v>139.4758365767224</v>
+        <v>142.9776279450313</v>
       </c>
       <c r="Q8" t="n">
-        <v>223.5782684926282</v>
+        <v>227.0800598609372</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>model_10_8_7</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9869555906845517</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7649791818082243</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5065598831875231</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9934912562670866</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.9698670566132626</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.08722802515638431</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.571585293419766</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.3778198107511452</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.08995560375552403</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.2338878027106795</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.3208713287584078</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.2953439099700285</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.006957018301572</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.3079173116636297</v>
+      </c>
+      <c r="P9" t="n">
+        <v>142.8784592205873</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>226.9808911364931</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>model_10_8_8</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.9862945808135131</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7617043778579187</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4604737362612943</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9929806076527313</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9671393078409524</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.09164820120769099</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.593483922514545</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.4131072928926396</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.09701314147650646</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.2550602171845731</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.3362834778948283</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.3027345391720129</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.00730955689946</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.315622575251454</v>
+      </c>
+      <c r="P10" t="n">
+        <v>142.7795958632927</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>226.8820277791986</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>model_10_8_9</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9856243526940517</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7586907468869142</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4170075728847953</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9924995346994542</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9645671047693415</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.09613001972864552</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.613636086694147</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.4463886923197321</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.1036619219076157</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.2750253071136739</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.3503840980991896</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.310048415136484</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.007667011896506</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.3232478180575432</v>
+      </c>
+      <c r="P11" t="n">
+        <v>142.6841072633513</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>226.7865391792571</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>model_10_8_10</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.984960261928814</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7559275925286647</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3762860980283327</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9920490288781575</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9621574932913622</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.1005707977336468</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.632113312610917</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.4775685242781927</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.1098882421950761</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.2937283832366344</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.3632496986476161</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.3171289922628437</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.008021193637966</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.3306298300109872</v>
+      </c>
+      <c r="P12" t="n">
+        <v>142.5937866888677</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>226.6962186047735</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>model_10_8_11</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9843134787779367</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7534017620126658</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3383506347223191</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9916293165325863</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.959912713118461</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.1048958396417254</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.649003552901782</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.506615148333857</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.1156889741026146</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.3111520612182358</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.374971180792615</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.3238762721190384</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.008366144651767</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.337664355539455</v>
+      </c>
+      <c r="P13" t="n">
+        <v>142.5095748491956</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>226.6120067651014</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>model_10_8_12</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.9836917309129192</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7510984762317583</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.3031764108650686</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9912398744694683</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9578310901450654</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.109053470477984</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.664405635524367</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.5335475321191729</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.1210713485443105</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.3273093352379345</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.3856254869970867</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.3302324491596548</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.00869774351311</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.3442911281957907</v>
+      </c>
+      <c r="P14" t="n">
+        <v>142.4318339243836</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>226.5342658402894</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>model_10_8_13</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9831002443127449</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7490025002671471</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.2706939072759484</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9908799410334534</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9559084767199778</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.1130087440968949</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.678421436450803</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.5584189054441528</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.1260458921547445</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.3422323987994487</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.3952925669478537</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.3361677320875621</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.009013203033203</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.3504790884056685</v>
+      </c>
+      <c r="P15" t="n">
+        <v>142.3605801637503</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>226.4630120796561</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>model_10_8_14</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9825422106752143</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7470983190972043</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.2407999060063792</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9905482333339048</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9541386736338671</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.1167403176005701</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.691154704702159</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.5813083007677913</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.1306303354217853</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.3559693693213263</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.4040614459287774</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.3416728224494452</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.009310820973219</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.3562185418613651</v>
+      </c>
+      <c r="P16" t="n">
+        <v>142.2956066372593</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>226.3980385531652</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>model_10_8_15</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9820191756081235</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7453708282869067</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.2133630673110316</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9902433602861462</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9525139705259527</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.1202378555025622</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.702706443704983</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.6023162829935766</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.13484390415414</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.3685800935738583</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.4119992758854193</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.3467533064046573</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.009589773009001</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.3615153125366022</v>
+      </c>
+      <c r="P17" t="n">
+        <v>142.2365667376763</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>226.3389986535822</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>model_10_8_16</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.981531806191563</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.743805500637353</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.1882501463233148</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.989963841476972</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9510264507585224</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.1234968970352319</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.71317379690522</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.6215448757482136</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.1387070587461907</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.3801260194207871</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.4191841435929186</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.351421252964632</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.0098497033645</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.3663819832456164</v>
+      </c>
+      <c r="P18" t="n">
+        <v>142.1830784969011</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>226.2855104128069</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>model_10_8_17</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9810797210061106</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7423885567866855</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.1653109914134643</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9897080400461677</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9496672920187286</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.126519992752012</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.722648906959059</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.6391090479173051</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.1422424218045284</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.3906756244529098</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.4256770327192402</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.3556964896537665</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.010090815463408</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.3708392256115674</v>
+      </c>
+      <c r="P19" t="n">
+        <v>142.134709875664</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>226.2371417915698</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>model_10_8_18</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9806620544021403</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7411069014450751</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.1443973760334195</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9894744285061722</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9484277673116778</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.1293129312559397</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.731219342129889</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.6551222943798207</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.1454711043255958</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.4002966464160448</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.4315466471892127</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.3596010723787399</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.010313570985525</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.3749100345067434</v>
+      </c>
+      <c r="P20" t="n">
+        <v>142.0910399769832</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>226.193471892889</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>model_10_8_19</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.980277422526419</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7399484831838714</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.1253590066653059</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9892613876790741</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9472990578758174</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.1318849663799551</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.738965690376583</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.6696996926629942</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.1484154845336021</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.4090575353363216</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.4368442154378409</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.3631596981769248</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.01051870798591</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.3786201583725279</v>
+      </c>
+      <c r="P21" t="n">
+        <v>142.0516504063245</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>226.1540823222304</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>model_10_8_20</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9799242323918256</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7389020662284502</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.1080516144131297</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9890674029682659</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9462726850668166</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.1342467504362722</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.745963085375792</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.6829517073300507</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.1510964952625787</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.4170241012963147</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.4416260634566049</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.3663969847532484</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.010707076057693</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.3819952629405128</v>
+      </c>
+      <c r="P22" t="n">
+        <v>142.0161515024051</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>226.1185834183109</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>model_10_8_21</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9796007018497751</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7379573053815469</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.09233677178989319</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9888910140875931</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9453405348278591</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.136410200660685</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.752280705509258</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.6949843302636085</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.1535343187363231</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.4242593244999658</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.4459406493878696</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.3693375159128639</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.01087962568012</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.3850609785993317</v>
+      </c>
+      <c r="P23" t="n">
+        <v>141.9841775029333</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>226.0866094188391</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>model_10_8_22</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9793049881089474</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7371047022690338</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.07808474529214404</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9887307464475243</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9444948885579967</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.1383876398072367</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.757982066448509</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.70589689649147</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.1557493348617769</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.4308231156766235</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.4498315893023204</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.3720048921818593</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.011037339675228</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.3878419105983283</v>
+      </c>
+      <c r="P24" t="n">
+        <v>141.9553930950758</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>226.0578250109817</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>model_10_8_23</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9790351380339112</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7363355011103376</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.0651682598113712</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9885852656944828</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9437282729354909</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.1401921285015487</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.763125718138556</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.7157868586847348</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.1577599853823199</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.4367734817318185</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.4533435212968679</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.37442239316252</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.011181259715247</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.3903623296006526</v>
+      </c>
+      <c r="P25" t="n">
+        <v>141.9294829014799</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>226.0319148173857</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>model_10_8_24</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9787893324699487</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7356417925008096</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.05347246950862206</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9884534020552156</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.943034004984541</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.1418358314395963</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.767764550804705</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.7247421526063457</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.1595824374207531</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.4421622950135494</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.4565037692669419</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.3766109815706338</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.011312356016027</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.3926440907483025</v>
+      </c>
+      <c r="P26" t="n">
+        <v>141.9061700136436</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>226.0086019295494</v>
       </c>
     </row>
   </sheetData>

--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_10_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_10_8.xlsx
@@ -518,1376 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_10_8_0</t>
+          <t>model_10_8_7</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9885029381164054</v>
+        <v>0.9880132678368581</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7945238940932877</v>
+        <v>0.7259151893221947</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8601144920343882</v>
+        <v>0.5149489333662229</v>
       </c>
       <c r="E2" t="n">
-        <v>0.997461905167918</v>
+        <v>0.9837908519835793</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9908406872274487</v>
+        <v>0.9532918713491697</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07688090575469878</v>
+        <v>0.08015533316875673</v>
       </c>
       <c r="H2" t="n">
-        <v>1.374019666328656</v>
+        <v>1.832806391046992</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1071082677424068</v>
+        <v>0.09954675467963886</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03507832884158008</v>
+        <v>0.04671548277473504</v>
       </c>
       <c r="K2" t="n">
-        <v>0.07109333831804758</v>
+        <v>0.07313111872718694</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1809901975406522</v>
+        <v>0.6715574844781976</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2772740625350644</v>
+        <v>0.2831171721544928</v>
       </c>
       <c r="N2" t="n">
-        <v>1.006131766337917</v>
+        <v>1.006392923820342</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2890781934136182</v>
+        <v>0.2951700563064502</v>
       </c>
       <c r="P2" t="n">
-        <v>143.1309954659617</v>
+        <v>143.047577724586</v>
       </c>
       <c r="Q2" t="n">
-        <v>227.2334273818675</v>
+        <v>227.1500096404918</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_10_8_1</t>
+          <t>model_10_8_6</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.988994269595549</v>
+        <v>0.9866348130207447</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7898529026955625</v>
+        <v>0.7258522167549992</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8128785707185611</v>
+        <v>0.6045596207578156</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9969253024306636</v>
+        <v>0.98629139785677</v>
       </c>
       <c r="F3" t="n">
-        <v>0.988033111807045</v>
+        <v>0.9614662865742797</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07359536989129249</v>
+        <v>0.08937306687130722</v>
       </c>
       <c r="H3" t="n">
-        <v>1.405254607313182</v>
+        <v>1.83322748889379</v>
       </c>
       <c r="I3" t="n">
-        <v>0.143276115155154</v>
+        <v>0.08115600424514947</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04249457154330033</v>
+        <v>0.03950879877455594</v>
       </c>
       <c r="K3" t="n">
-        <v>0.09288535636271499</v>
+        <v>0.06033240150985271</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1987521227077194</v>
+        <v>0.630488951818182</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2712846657872363</v>
+        <v>0.2989532854332048</v>
       </c>
       <c r="N3" t="n">
-        <v>1.005869722882374</v>
+        <v>1.00712809972227</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2828338156464746</v>
+        <v>0.3116803457127106</v>
       </c>
       <c r="P3" t="n">
-        <v>143.2183463286237</v>
+        <v>142.8298718152277</v>
       </c>
       <c r="Q3" t="n">
-        <v>227.3207782445296</v>
+        <v>226.9323037311335</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_10_8_2</t>
+          <t>model_10_8_8</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9891235091633016</v>
+        <v>0.9890229476563797</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7852154341771898</v>
+        <v>0.7258261046158369</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7623033049633539</v>
+        <v>0.4257952751365676</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9963519918094624</v>
+        <v>0.9814018008065096</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9850281453585119</v>
+        <v>0.9452500007723902</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07273114430663781</v>
+        <v>0.07340359956646784</v>
       </c>
       <c r="H4" t="n">
-        <v>1.436265380649119</v>
+        <v>1.833402100888604</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1820008492926157</v>
+        <v>0.1178437092790205</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05041814407678551</v>
+        <v>0.05360083412061079</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1162094966847006</v>
+        <v>0.08572231021626578</v>
       </c>
       <c r="L4" t="n">
-        <v>0.22247451703989</v>
+        <v>0.7089081844645568</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2696871229900267</v>
+        <v>0.2709309867225745</v>
       </c>
       <c r="N4" t="n">
-        <v>1.005800795112906</v>
+        <v>1.005854427916598</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2811682621450184</v>
+        <v>0.2824650797318136</v>
       </c>
       <c r="P4" t="n">
-        <v>143.2419711826264</v>
+        <v>143.223564608298</v>
       </c>
       <c r="Q4" t="n">
-        <v>227.3444030985322</v>
+        <v>227.3259965242039</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_10_8_3</t>
+          <t>model_10_8_9</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9889810571719516</v>
+        <v>0.9897451747693315</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7807102426298784</v>
+        <v>0.7256272866332267</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7100432523009302</v>
+        <v>0.3387121425418462</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9957623834188767</v>
+        <v>0.979141022853065</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9819255726667677</v>
+        <v>0.9374619130450873</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07368372142872602</v>
+        <v>0.06857406353660847</v>
       </c>
       <c r="H5" t="n">
-        <v>1.46639161727049</v>
+        <v>1.834731597653791</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2220155998854733</v>
+        <v>0.1357157310793279</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05856696371555189</v>
+        <v>0.06011649635249672</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1402912433733295</v>
+        <v>0.09791615280201482</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2450009341348426</v>
+        <v>0.7429059158779716</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2714474561102498</v>
+        <v>0.2618664994546047</v>
       </c>
       <c r="N5" t="n">
-        <v>1.005876769508292</v>
+        <v>1.005469240123023</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2830035362905613</v>
+        <v>0.2730146984747709</v>
       </c>
       <c r="P5" t="n">
-        <v>143.2159467606405</v>
+        <v>143.3596817965965</v>
       </c>
       <c r="Q5" t="n">
-        <v>227.3183786765464</v>
+        <v>227.4621137125023</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_10_8_4</t>
+          <t>model_10_8_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9886404124347011</v>
+        <v>0.9847847072640977</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7764026169618643</v>
+        <v>0.7255821711515966</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6574342754524745</v>
+        <v>0.692305721134993</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9951717586980738</v>
+        <v>0.9888710888365279</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9788048640637408</v>
+        <v>0.9695913411291229</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07596161435524494</v>
+        <v>0.1017447325849596</v>
       </c>
       <c r="H6" t="n">
-        <v>1.495196729947293</v>
+        <v>1.835033285087189</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2622975165749684</v>
+        <v>0.06314792194371042</v>
       </c>
       <c r="J6" t="n">
-        <v>0.06672982978202303</v>
+        <v>0.03207401507050592</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1645137585353741</v>
+        <v>0.04761096850710818</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2661447359288155</v>
+        <v>0.5853400069496615</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2756113465647685</v>
+        <v>0.3189745014651791</v>
       </c>
       <c r="N6" t="n">
-        <v>1.006058446701493</v>
+        <v>1.008114822792481</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2873446921821703</v>
+        <v>0.3325539063607968</v>
       </c>
       <c r="P6" t="n">
-        <v>143.1550542811237</v>
+        <v>142.5705764484125</v>
       </c>
       <c r="Q6" t="n">
-        <v>227.2574861970296</v>
+        <v>226.6730083643183</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_10_8_5</t>
+          <t>model_10_8_10</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9881601751825925</v>
+        <v>0.9902442462352626</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7723324965469718</v>
+        <v>0.7253514240692679</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6055041357250881</v>
+        <v>0.2548012916656522</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9945913924208167</v>
+        <v>0.9770173598112374</v>
       </c>
       <c r="F7" t="n">
-        <v>0.975726798120896</v>
+        <v>0.930007954860526</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0791729630713844</v>
+        <v>0.06523677034591463</v>
       </c>
       <c r="H7" t="n">
-        <v>1.522413643902861</v>
+        <v>1.836576291889214</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3020596577053337</v>
+        <v>0.1529367073058145</v>
       </c>
       <c r="J7" t="n">
-        <v>0.07475091664798923</v>
+        <v>0.06623698733384478</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1884052871766614</v>
+        <v>0.1095868473198296</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2858477189618669</v>
+        <v>0.7738524786210796</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2813769057179079</v>
+        <v>0.2554148984415643</v>
       </c>
       <c r="N7" t="n">
-        <v>1.006314573235951</v>
+        <v>1.005203068674527</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2933557031248116</v>
+        <v>0.2662884394499502</v>
       </c>
       <c r="P7" t="n">
-        <v>143.0722408276098</v>
+        <v>143.4594640133118</v>
       </c>
       <c r="Q7" t="n">
-        <v>227.1746727435156</v>
+        <v>227.5618959292176</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_10_8_6</t>
+          <t>model_10_8_4</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9875866156345067</v>
+        <v>0.9823324659424933</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7685217766186034</v>
+        <v>0.725033016179859</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5550280654872404</v>
+        <v>0.7748873458675332</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9940294103290858</v>
+        <v>0.9914728588267154</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9727368084287851</v>
+        <v>0.9773982490795639</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0830083584104333</v>
+        <v>0.1181428815940611</v>
       </c>
       <c r="H8" t="n">
-        <v>1.547895945610612</v>
+        <v>1.838705486911824</v>
       </c>
       <c r="I8" t="n">
-        <v>0.340708439299986</v>
+        <v>0.04619974204309188</v>
       </c>
       <c r="J8" t="n">
-        <v>0.08251792061003137</v>
+        <v>0.02457559868012576</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2116131799550087</v>
+        <v>0.03538765901672117</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3040783664348437</v>
+        <v>0.5357946770198294</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2881117116856469</v>
+        <v>0.3437191900288099</v>
       </c>
       <c r="N8" t="n">
-        <v>1.006620471661597</v>
+        <v>1.00942268483067</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3003772237255676</v>
+        <v>0.3583520275451481</v>
       </c>
       <c r="P8" t="n">
-        <v>142.9776279450313</v>
+        <v>142.2717210521015</v>
       </c>
       <c r="Q8" t="n">
-        <v>227.0800598609372</v>
+        <v>226.3741529680073</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_10_8_7</t>
+          <t>model_10_8_11</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9869555906845517</v>
+        <v>0.9905712247541567</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7649791818082243</v>
+        <v>0.7250238975861455</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5065598831875231</v>
+        <v>0.1747944855882427</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9934912562670866</v>
+        <v>0.9750332551755378</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9698670566132626</v>
+        <v>0.9229382838681719</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08722802515638431</v>
+        <v>0.06305026348447171</v>
       </c>
       <c r="H9" t="n">
-        <v>1.571585293419766</v>
+        <v>1.838766462989974</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3778198107511452</v>
+        <v>0.1693564586374874</v>
       </c>
       <c r="J9" t="n">
-        <v>0.08995560375552403</v>
+        <v>0.07195526480520835</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2338878027106795</v>
+        <v>0.1206558617213478</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3208713287584078</v>
+        <v>0.802013810670969</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2953439099700285</v>
+        <v>0.2510981152547181</v>
       </c>
       <c r="N9" t="n">
-        <v>1.006957018301572</v>
+        <v>1.005028680131116</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3079173116636297</v>
+        <v>0.2617878818658669</v>
       </c>
       <c r="P9" t="n">
-        <v>142.8784592205873</v>
+        <v>143.5276460752068</v>
       </c>
       <c r="Q9" t="n">
-        <v>226.9808911364931</v>
+        <v>227.6300779911126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_10_8_8</t>
+          <t>model_10_8_12</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9862945808135131</v>
+        <v>0.9907664027658761</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7617043778579187</v>
+        <v>0.7246641104517346</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4604737362612943</v>
+        <v>0.09914206855179397</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9929806076527313</v>
+        <v>0.9731879495830572</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9671393078409524</v>
+        <v>0.9162817412567555</v>
       </c>
       <c r="G10" t="n">
-        <v>0.09164820120769099</v>
+        <v>0.06174510722139192</v>
       </c>
       <c r="H10" t="n">
-        <v>1.593483922514545</v>
+        <v>1.841172361214447</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4131072928926396</v>
+        <v>0.1848825611815214</v>
       </c>
       <c r="J10" t="n">
-        <v>0.09701314147650646</v>
+        <v>0.07727351728413709</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2550602171845731</v>
+        <v>0.1310780392328292</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3362834778948283</v>
+        <v>0.8276235459146669</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3027345391720129</v>
+        <v>0.248485627796442</v>
       </c>
       <c r="N10" t="n">
-        <v>1.00730955689946</v>
+        <v>1.004924585191533</v>
       </c>
       <c r="O10" t="n">
-        <v>0.315622575251454</v>
+        <v>0.2590641754078974</v>
       </c>
       <c r="P10" t="n">
-        <v>142.7795958632927</v>
+        <v>143.5694810837889</v>
       </c>
       <c r="Q10" t="n">
-        <v>226.8820277791986</v>
+        <v>227.6719129996947</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_10_8_9</t>
+          <t>model_10_8_13</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9856243526940517</v>
+        <v>0.9908616548454744</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7586907468869142</v>
+        <v>0.7242870122072549</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4170075728847953</v>
+        <v>0.02807356264289063</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9924995346994542</v>
+        <v>0.9714778306706995</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9645671047693415</v>
+        <v>0.9100500449785215</v>
       </c>
       <c r="G11" t="n">
-        <v>0.09613001972864552</v>
+        <v>0.06110815612652315</v>
       </c>
       <c r="H11" t="n">
-        <v>1.613636086694147</v>
+        <v>1.843694018911661</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4463886923197321</v>
+        <v>0.1994679102505578</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1036619219076157</v>
+        <v>0.08220215576112933</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2750253071136739</v>
+        <v>0.1408350330058435</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3503840980991896</v>
+        <v>0.8508996305298447</v>
       </c>
       <c r="M11" t="n">
-        <v>0.310048415136484</v>
+        <v>0.2472006394136616</v>
       </c>
       <c r="N11" t="n">
-        <v>1.007667011896506</v>
+        <v>1.004873784082414</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3232478180575432</v>
+        <v>0.2577244824093693</v>
       </c>
       <c r="P11" t="n">
-        <v>142.6841072633513</v>
+        <v>143.5902198671084</v>
       </c>
       <c r="Q11" t="n">
-        <v>226.7865391792571</v>
+        <v>227.6926517830142</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_10_8_10</t>
+          <t>model_10_8_3</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.984960261928814</v>
+        <v>0.9791119875716078</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7559275925286647</v>
+        <v>0.7241095901005359</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3762860980283327</v>
+        <v>0.8476556538491169</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9920490288781575</v>
+        <v>0.9939974180650929</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9621574932913622</v>
+        <v>0.9844909252367948</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1005707977336468</v>
+        <v>0.1396782352891123</v>
       </c>
       <c r="H12" t="n">
-        <v>1.632113312610917</v>
+        <v>1.844880441356244</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4775685242781927</v>
+        <v>0.03126554356092594</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1098882421950761</v>
+        <v>0.01729970709749936</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2937283832366344</v>
+        <v>0.02428262532921265</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3632496986476161</v>
+        <v>0.4805897572454886</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3171289922628437</v>
+        <v>0.3737355151562564</v>
       </c>
       <c r="N12" t="n">
-        <v>1.008021193637966</v>
+        <v>1.011140273295142</v>
       </c>
       <c r="O12" t="n">
-        <v>0.3306298300109872</v>
+        <v>0.3896462097756289</v>
       </c>
       <c r="P12" t="n">
-        <v>142.5937866888677</v>
+        <v>141.9368276418521</v>
       </c>
       <c r="Q12" t="n">
-        <v>226.6962186047735</v>
+        <v>226.0392595577579</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_10_8_11</t>
+          <t>model_10_8_14</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9843134787779367</v>
+        <v>0.9908821789191217</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7534017620126658</v>
+        <v>0.7239038468766417</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3383506347223191</v>
+        <v>-0.03831196503914946</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9916293165325863</v>
+        <v>0.9698982525467653</v>
       </c>
       <c r="F13" t="n">
-        <v>0.959912713118461</v>
+        <v>0.9042454829232922</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1048958396417254</v>
+        <v>0.06097091155153883</v>
       </c>
       <c r="H13" t="n">
-        <v>1.649003552901782</v>
+        <v>1.846256247241786</v>
       </c>
       <c r="I13" t="n">
-        <v>0.506615148333857</v>
+        <v>0.2130921743601179</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1156889741026146</v>
+        <v>0.0867545699019123</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3111520612182358</v>
+        <v>0.1499232608814161</v>
       </c>
       <c r="L13" t="n">
-        <v>0.374971180792615</v>
+        <v>0.8720360088779877</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3238762721190384</v>
+        <v>0.2469228858399699</v>
       </c>
       <c r="N13" t="n">
-        <v>1.008366144651767</v>
+        <v>1.004862837909802</v>
       </c>
       <c r="O13" t="n">
-        <v>0.337664355539455</v>
+        <v>0.2574349042910165</v>
       </c>
       <c r="P13" t="n">
-        <v>142.5095748491956</v>
+        <v>143.5947167767069</v>
       </c>
       <c r="Q13" t="n">
-        <v>226.6120067651014</v>
+        <v>227.6971486926128</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_10_8_12</t>
+          <t>model_10_8_15</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9836917309129192</v>
+        <v>0.9908477420071199</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7510984762317583</v>
+        <v>0.7235231993538517</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3031764108650686</v>
+        <v>-0.100031366671979</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9912398744694683</v>
+        <v>0.9684434568463079</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9578310901450654</v>
+        <v>0.8988614726745903</v>
       </c>
       <c r="G14" t="n">
-        <v>0.109053470477984</v>
+        <v>0.06120119134066253</v>
       </c>
       <c r="H14" t="n">
-        <v>1.664405635524367</v>
+        <v>1.848801638979403</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5335475321191729</v>
+        <v>0.2257588120730418</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1210713485443105</v>
+        <v>0.09094735556940235</v>
       </c>
       <c r="K14" t="n">
-        <v>0.3273093352379345</v>
+        <v>0.1583530289774499</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3856254869970867</v>
+        <v>0.8912076938446479</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3302324491596548</v>
+        <v>0.2473887453799435</v>
       </c>
       <c r="N14" t="n">
-        <v>1.00869774351311</v>
+        <v>1.004881204262869</v>
       </c>
       <c r="O14" t="n">
-        <v>0.3442911281957907</v>
+        <v>0.2579205964360689</v>
       </c>
       <c r="P14" t="n">
-        <v>142.4318339243836</v>
+        <v>143.5871772466053</v>
       </c>
       <c r="Q14" t="n">
-        <v>226.5342658402894</v>
+        <v>227.6896091625111</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_10_8_13</t>
+          <t>model_10_8_16</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9831002443127449</v>
+        <v>0.9907737708043491</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7490025002671471</v>
+        <v>0.7231512226852929</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2706939072759484</v>
+        <v>-0.1571924827080826</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9908799410334534</v>
+        <v>0.9671067312514734</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9559084767199778</v>
+        <v>0.8938848767591444</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1130087440968949</v>
+        <v>0.06169583711419643</v>
       </c>
       <c r="H15" t="n">
-        <v>1.678421436450803</v>
+        <v>1.851289048674851</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5584189054441528</v>
+        <v>0.2374899554240915</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1260458921547445</v>
+        <v>0.09479985796106288</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3422323987994487</v>
+        <v>0.1661449066925772</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3952925669478537</v>
+        <v>0.9085956914866372</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3361677320875621</v>
+        <v>0.2483864672525386</v>
       </c>
       <c r="N15" t="n">
-        <v>1.009013203033203</v>
+        <v>1.004920655571014</v>
       </c>
       <c r="O15" t="n">
-        <v>0.3504790884056685</v>
+        <v>0.2589607933943494</v>
       </c>
       <c r="P15" t="n">
-        <v>142.3605801637503</v>
+        <v>143.5710776402662</v>
       </c>
       <c r="Q15" t="n">
-        <v>226.4630120796561</v>
+        <v>227.673509556172</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_10_8_14</t>
+          <t>model_10_8_17</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9825422106752143</v>
+        <v>0.9906723779745396</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7470983190972043</v>
+        <v>0.7227923484249705</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2407999060063792</v>
+        <v>-0.2099424297152206</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9905482333339048</v>
+        <v>0.9658808025357568</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9541386736338671</v>
+        <v>0.8892993932971585</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1167403176005701</v>
+        <v>0.06237385143400419</v>
       </c>
       <c r="H16" t="n">
-        <v>1.691154704702159</v>
+        <v>1.85368884250609</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5813083007677913</v>
+        <v>0.2483157970628404</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1306303354217853</v>
+        <v>0.09833303883794139</v>
       </c>
       <c r="K16" t="n">
-        <v>0.3559693693213263</v>
+        <v>0.1733244179503909</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4040614459287774</v>
+        <v>0.9243532893267851</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3416728224494452</v>
+        <v>0.249747575431683</v>
       </c>
       <c r="N16" t="n">
-        <v>1.009310820973219</v>
+        <v>1.004974731746912</v>
       </c>
       <c r="O16" t="n">
-        <v>0.3562185418613651</v>
+        <v>0.2603798467665623</v>
       </c>
       <c r="P16" t="n">
-        <v>142.2956066372593</v>
+        <v>143.5492182779274</v>
       </c>
       <c r="Q16" t="n">
-        <v>226.3980385531652</v>
+        <v>227.6516501938332</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_10_8_15</t>
+          <t>model_10_8_2</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9820191756081235</v>
+        <v>0.9749105782236267</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7453708282869067</v>
+        <v>0.7226844226296513</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2133630673110316</v>
+        <v>0.9040358206651286</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9902433602861462</v>
+        <v>0.9962721775702655</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9525139705259527</v>
+        <v>0.9902796386798151</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1202378555025622</v>
+        <v>0.1677730789447732</v>
       </c>
       <c r="H17" t="n">
-        <v>1.702706443704983</v>
+        <v>1.854410542796343</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6023162829935766</v>
+        <v>0.01969467397438786</v>
       </c>
       <c r="J17" t="n">
-        <v>0.13484390415414</v>
+        <v>0.01074374941404152</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3685800935738583</v>
+        <v>0.01521921169421469</v>
       </c>
       <c r="L17" t="n">
-        <v>0.4119992758854193</v>
+        <v>0.4358125017029482</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3467533064046573</v>
+        <v>0.4096011217572203</v>
       </c>
       <c r="N17" t="n">
-        <v>1.009589773009001</v>
+        <v>1.013381024947399</v>
       </c>
       <c r="O17" t="n">
-        <v>0.3615153125366022</v>
+        <v>0.4270386895016366</v>
       </c>
       <c r="P17" t="n">
-        <v>142.2365667376763</v>
+        <v>141.570285866382</v>
       </c>
       <c r="Q17" t="n">
-        <v>226.3389986535822</v>
+        <v>225.6727177822878</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_10_8_16</t>
+          <t>model_10_8_18</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.981531806191563</v>
+        <v>0.9905528169182705</v>
       </c>
       <c r="C18" t="n">
-        <v>0.743805500637353</v>
+        <v>0.7224497050293637</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1882501463233148</v>
+        <v>-0.2584968460143435</v>
       </c>
       <c r="E18" t="n">
-        <v>0.989963841476972</v>
+        <v>0.9647593341102652</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9510264507585224</v>
+        <v>0.8850849846983684</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1234968970352319</v>
+        <v>0.06317335676780343</v>
       </c>
       <c r="H18" t="n">
-        <v>1.71317379690522</v>
+        <v>1.855980100470241</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6215448757482136</v>
+        <v>0.2582805923193184</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1387070587461907</v>
+        <v>0.1015651605299879</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3801260194207871</v>
+        <v>0.1799229356924953</v>
       </c>
       <c r="L18" t="n">
-        <v>0.4191841435929186</v>
+        <v>0.9386126005209735</v>
       </c>
       <c r="M18" t="n">
-        <v>0.351421252964632</v>
+        <v>0.2513431056699257</v>
       </c>
       <c r="N18" t="n">
-        <v>1.0098497033645</v>
+        <v>1.005038497643589</v>
       </c>
       <c r="O18" t="n">
-        <v>0.3663819832456164</v>
+        <v>0.2620433020302499</v>
       </c>
       <c r="P18" t="n">
-        <v>142.1830784969011</v>
+        <v>143.5237452736894</v>
       </c>
       <c r="Q18" t="n">
-        <v>226.2855104128069</v>
+        <v>227.6261771895952</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_10_8_17</t>
+          <t>model_10_8_19</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9810797210061106</v>
+        <v>0.9904222295935038</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7423885567866855</v>
+        <v>0.7221252375491959</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1653109914134643</v>
+        <v>-0.3030686239372398</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9897080400461677</v>
+        <v>0.96373455017042</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9496672920187286</v>
+        <v>0.8812206551790432</v>
       </c>
       <c r="G19" t="n">
-        <v>0.126519992752012</v>
+        <v>0.0640465948098175</v>
       </c>
       <c r="H19" t="n">
-        <v>1.722648906959059</v>
+        <v>1.858149816004158</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6391090479173051</v>
+        <v>0.2674280329657605</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1422424218045284</v>
+        <v>0.1045186332505261</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3906756244529098</v>
+        <v>0.1859733331081433</v>
       </c>
       <c r="L19" t="n">
-        <v>0.4256770327192402</v>
+        <v>0.9515241257322916</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3556964896537665</v>
+        <v>0.2530742871368356</v>
       </c>
       <c r="N19" t="n">
-        <v>1.010090815463408</v>
+        <v>1.005108144216798</v>
       </c>
       <c r="O19" t="n">
-        <v>0.3708392256115674</v>
+        <v>0.2638481834762458</v>
       </c>
       <c r="P19" t="n">
-        <v>142.134709875664</v>
+        <v>143.4962888332289</v>
       </c>
       <c r="Q19" t="n">
-        <v>226.2371417915698</v>
+        <v>227.5987207491348</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_10_8_18</t>
+          <t>model_10_8_20</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9806620544021403</v>
+        <v>0.9902861542076884</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7411069014450751</v>
+        <v>0.7218200622935627</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1443973760334195</v>
+        <v>-0.3438852273504001</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9894744285061722</v>
+        <v>0.9628002563126073</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9484277673116778</v>
+        <v>0.8776857647303723</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1293129312559397</v>
+        <v>0.06495653154133516</v>
       </c>
       <c r="H20" t="n">
-        <v>1.731219342129889</v>
+        <v>1.86019052434378</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6551222943798207</v>
+        <v>0.2758048012821854</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1454711043255958</v>
+        <v>0.1072113095452314</v>
       </c>
       <c r="K20" t="n">
-        <v>0.4002966464160448</v>
+        <v>0.1915079263482592</v>
       </c>
       <c r="L20" t="n">
-        <v>0.4315466471892127</v>
+        <v>0.9631951441187142</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3596010723787399</v>
+        <v>0.254865712761319</v>
       </c>
       <c r="N20" t="n">
-        <v>1.010313570985525</v>
+        <v>1.0051807177559</v>
       </c>
       <c r="O20" t="n">
-        <v>0.3749100345067434</v>
+        <v>0.2657158737983257</v>
       </c>
       <c r="P20" t="n">
-        <v>142.0910399769832</v>
+        <v>143.4680739566289</v>
       </c>
       <c r="Q20" t="n">
-        <v>226.193471892889</v>
+        <v>227.5705058725347</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_10_8_19</t>
+          <t>model_10_8_21</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.980277422526419</v>
+        <v>0.9901485549978489</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7399484831838714</v>
+        <v>0.7215346223190702</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1253590066653059</v>
+        <v>-0.381197145856107</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9892613876790741</v>
+        <v>0.9619490314377557</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9472990578758174</v>
+        <v>0.8744568569336764</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1318849663799551</v>
+        <v>0.06587665809111716</v>
       </c>
       <c r="H21" t="n">
-        <v>1.738965690376583</v>
+        <v>1.862099262767542</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6696996926629942</v>
+        <v>0.2834623051072799</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1484154845336021</v>
+        <v>0.109664577350441</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4090575353363216</v>
+        <v>0.1965634412288604</v>
       </c>
       <c r="L21" t="n">
-        <v>0.4368442154378409</v>
+        <v>0.9737495146734164</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3631596981769248</v>
+        <v>0.256664485449618</v>
       </c>
       <c r="N21" t="n">
-        <v>1.01051870798591</v>
+        <v>1.005254104001147</v>
       </c>
       <c r="O21" t="n">
-        <v>0.3786201583725279</v>
+        <v>0.2675912239639384</v>
       </c>
       <c r="P21" t="n">
-        <v>142.0516504063245</v>
+        <v>143.4399422043475</v>
       </c>
       <c r="Q21" t="n">
-        <v>226.1540823222304</v>
+        <v>227.5423741202533</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_10_8_20</t>
+          <t>model_10_8_22</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9799242323918256</v>
+        <v>0.9900124012225773</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7389020662284502</v>
+        <v>0.7212689555344423</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1080516144131297</v>
+        <v>-0.4152618783214514</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9890674029682659</v>
+        <v>0.961174692331201</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9462726850668166</v>
+        <v>0.871511571674001</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1342467504362722</v>
+        <v>0.06678711901328949</v>
       </c>
       <c r="H22" t="n">
-        <v>1.745963085375792</v>
+        <v>1.863875777779632</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6829517073300507</v>
+        <v>0.2904533907871625</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1510964952625787</v>
+        <v>0.1118962569647804</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4170241012963147</v>
+        <v>0.2011748870784884</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4416260634566049</v>
+        <v>0.9832801995844289</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3663969847532484</v>
+        <v>0.2584320394480713</v>
       </c>
       <c r="N22" t="n">
-        <v>1.010707076057693</v>
+        <v>1.005326719347959</v>
       </c>
       <c r="O22" t="n">
-        <v>0.3819952629405128</v>
+        <v>0.2694340263954471</v>
       </c>
       <c r="P22" t="n">
-        <v>142.0161515024051</v>
+        <v>143.4124900923517</v>
       </c>
       <c r="Q22" t="n">
-        <v>226.1185834183109</v>
+        <v>227.5149220082575</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_10_8_21</t>
+          <t>model_10_8_23</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9796007018497751</v>
+        <v>0.9898799776326421</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7379573053815469</v>
+        <v>0.7210226973627918</v>
       </c>
       <c r="D23" t="n">
-        <v>0.09233677178989319</v>
+        <v>-0.4462937398063134</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9888910140875931</v>
+        <v>0.9604711123023016</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9453405348278591</v>
+        <v>0.8688302628192887</v>
       </c>
       <c r="G23" t="n">
-        <v>0.136410200660685</v>
+        <v>0.06767263616894033</v>
       </c>
       <c r="H23" t="n">
-        <v>1.752280705509258</v>
+        <v>1.865522507307373</v>
       </c>
       <c r="I23" t="n">
-        <v>0.6949843302636085</v>
+        <v>0.2968220420797457</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1535343187363231</v>
+        <v>0.1139240057821394</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4242593244999658</v>
+        <v>0.2053730239309425</v>
       </c>
       <c r="L23" t="n">
-        <v>0.4459406493878696</v>
+        <v>0.9918890445441906</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3693375159128639</v>
+        <v>0.2601396474375645</v>
       </c>
       <c r="N23" t="n">
-        <v>1.01087962568012</v>
+        <v>1.005397345262591</v>
       </c>
       <c r="O23" t="n">
-        <v>0.3850609785993317</v>
+        <v>0.2712143307922888</v>
       </c>
       <c r="P23" t="n">
-        <v>141.9841775029333</v>
+        <v>143.3861467465082</v>
       </c>
       <c r="Q23" t="n">
-        <v>226.0866094188391</v>
+        <v>227.4885786624141</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_10_8_22</t>
+          <t>model_10_8_24</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9793049881089474</v>
+        <v>0.989752703123955</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7371047022690338</v>
+        <v>0.7207951894763236</v>
       </c>
       <c r="D24" t="n">
-        <v>0.07808474529214404</v>
+        <v>-0.4745378481683282</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9887307464475243</v>
+        <v>0.9598323904241717</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9444948885579967</v>
+        <v>0.8663911855790852</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1383876398072367</v>
+        <v>0.06852372139457621</v>
       </c>
       <c r="H24" t="n">
-        <v>1.757982066448509</v>
+        <v>1.867043853591763</v>
       </c>
       <c r="I24" t="n">
-        <v>0.70589689649147</v>
+        <v>0.3026185643836157</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1557493348617769</v>
+        <v>0.1157648305352604</v>
       </c>
       <c r="K24" t="n">
-        <v>0.4308231156766235</v>
+        <v>0.2091918976985373</v>
       </c>
       <c r="L24" t="n">
-        <v>0.4498315893023204</v>
+        <v>0.9996611362531505</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3720048921818593</v>
+        <v>0.2617703600382905</v>
       </c>
       <c r="N24" t="n">
-        <v>1.011037339675228</v>
+        <v>1.005465225000557</v>
       </c>
       <c r="O24" t="n">
-        <v>0.3878419105983283</v>
+        <v>0.2729144662044682</v>
       </c>
       <c r="P24" t="n">
-        <v>141.9553930950758</v>
+        <v>143.3611505918603</v>
       </c>
       <c r="Q24" t="n">
-        <v>226.0578250109817</v>
+        <v>227.4635825077661</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_10_8_23</t>
+          <t>model_10_8_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9790351380339112</v>
+        <v>0.96945422675258</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7363355011103376</v>
+        <v>0.7205841783358411</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0651682598113712</v>
+        <v>0.9348096189621279</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9885852656944828</v>
+        <v>0.9980002991431433</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9437282729354909</v>
+        <v>0.9938870286389685</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1401921285015487</v>
+        <v>0.2042597263558504</v>
       </c>
       <c r="H25" t="n">
-        <v>1.763125718138556</v>
+        <v>1.868454886059787</v>
       </c>
       <c r="I25" t="n">
-        <v>0.7157868586847348</v>
+        <v>0.01337898484315453</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1577599853823199</v>
+        <v>0.005763226471772392</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4367734817318185</v>
+        <v>0.009571105657463459</v>
       </c>
       <c r="L25" t="n">
-        <v>0.4533435212968679</v>
+        <v>0.3946446433105589</v>
       </c>
       <c r="M25" t="n">
-        <v>0.37442239316252</v>
+        <v>0.4519510220763423</v>
       </c>
       <c r="N25" t="n">
-        <v>1.011181259715247</v>
+        <v>1.016291079065291</v>
       </c>
       <c r="O25" t="n">
-        <v>0.3903623296006526</v>
+        <v>0.4711915127537228</v>
       </c>
       <c r="P25" t="n">
-        <v>141.9294829014799</v>
+        <v>141.1767258530371</v>
       </c>
       <c r="Q25" t="n">
-        <v>226.0319148173857</v>
+        <v>225.2791577689429</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_10_8_24</t>
+          <t>model_10_8_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9787893324699487</v>
+        <v>0.9623880792076895</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7356417925008096</v>
+        <v>0.717569973336773</v>
       </c>
       <c r="D26" t="n">
-        <v>0.05347246950862206</v>
+        <v>0.9271787973106972</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9884534020552156</v>
+        <v>0.9986761167954724</v>
       </c>
       <c r="F26" t="n">
-        <v>0.943034004984541</v>
+        <v>0.9940089121976106</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1418358314395963</v>
+        <v>0.2515110875251508</v>
       </c>
       <c r="H26" t="n">
-        <v>1.767764550804705</v>
+        <v>1.888610888767694</v>
       </c>
       <c r="I26" t="n">
-        <v>0.7247421526063457</v>
+        <v>0.0149450540329633</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1595824374207531</v>
+        <v>0.00381549005377793</v>
       </c>
       <c r="K26" t="n">
-        <v>0.4421622950135494</v>
+        <v>0.009380272043370615</v>
       </c>
       <c r="L26" t="n">
-        <v>0.4565037692669419</v>
+        <v>0.3734547414134021</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3766109815706338</v>
+        <v>0.5015088110144734</v>
       </c>
       <c r="N26" t="n">
-        <v>1.011312356016027</v>
+        <v>1.020059691089232</v>
       </c>
       <c r="O26" t="n">
-        <v>0.3926440907483025</v>
+        <v>0.5228590793657157</v>
       </c>
       <c r="P26" t="n">
-        <v>141.9061700136436</v>
+        <v>140.760536409654</v>
       </c>
       <c r="Q26" t="n">
-        <v>226.0086019295494</v>
+        <v>224.8629683255598</v>
       </c>
     </row>
   </sheetData>
